--- a/excel/class_notes/what-if/Data Table What if.xlsx
+++ b/excel/class_notes/what-if/Data Table What if.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ASSIGNMENT MASTER\EXCEL WHAT IF ANALYSIS\Data Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\ds\ds_materials\excel\class_notes\what-if\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3452D86D-CD93-412C-ABF9-01A3F6FAE579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB97AAE-9124-4653-B47B-7FBDC120076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Loan Amount</t>
   </si>
@@ -76,16 +89,19 @@
   <si>
     <t>&lt;---</t>
   </si>
+  <si>
+    <t>I_rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +118,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,25 +170,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,9 +248,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,26 +283,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,26 +318,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,21 +496,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -585,7 +580,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -603,7 +598,7 @@
         <v>-1933.2801529427916</v>
       </c>
       <c r="J2">
-        <f t="dataTable" ref="J2:X2" dt2D="0" dtr="1" r1="F3"/>
+        <f t="dataTable" ref="J2:X2" dt2D="0" dtr="1" r1="F3" ca="1"/>
         <v>-1657.2887893472202</v>
       </c>
       <c r="K2">
@@ -649,7 +644,7 @@
         <v>-716.4310584781648</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -663,7 +658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -679,7 +674,7 @@
         <v>-1933.2801529427916</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
         <f>C4</f>
         <v>-1933.2801529427916</v>
@@ -696,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>0.01</v>
       </c>
@@ -708,15 +703,14 @@
         <v>72</v>
       </c>
       <c r="G7" s="3">
-        <f t="dataTable" ref="G7:G21" dt2D="0" dtr="0" r1="F3" ca="1"/>
+        <f t="dataTable" ref="G7:G21" dt2D="0" dtr="0" r1="F3"/>
         <v>-1657.2887893472202</v>
       </c>
-      <c r="H7" s="11"/>
       <c r="I7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>0.02</v>
       </c>
@@ -729,12 +723,11 @@
       <c r="G8" s="3">
         <v>-1460.8554483780788</v>
       </c>
-      <c r="H8" s="11"/>
       <c r="I8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>0.03</v>
       </c>
@@ -747,9 +740,8 @@
       <c r="G9" s="3">
         <v>-1314.1430210139204</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>0.04</v>
       </c>
@@ -762,9 +754,8 @@
       <c r="G10" s="3">
         <v>-1200.5749630925591</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>0.05</v>
       </c>
@@ -777,100 +768,338 @@
       <c r="G11" s="3">
         <v>-1110.2050194164945</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F12" s="8">
         <v>132</v>
       </c>
       <c r="G12" s="3">
         <v>-1036.7034626852571</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F13" s="8">
         <v>144</v>
       </c>
       <c r="G13" s="3">
         <v>-975.85021357627863</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F14" s="8">
         <v>156</v>
       </c>
       <c r="G14" s="3">
         <v>-924.72344440322604</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F15" s="8">
         <v>168</v>
       </c>
       <c r="G15" s="3">
         <v>-881.23592453356355</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F16" s="8">
         <v>180</v>
       </c>
       <c r="G16" s="3">
         <v>-843.85682804845135</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F17" s="8">
         <v>192</v>
       </c>
       <c r="G17" s="3">
         <v>-811.43786388512251</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F18" s="8">
         <v>204</v>
       </c>
       <c r="G18" s="3">
         <v>-783.10077211716975</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F19" s="8">
         <v>216</v>
       </c>
       <c r="G19" s="3">
         <v>-758.16232173598189</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F20" s="8">
         <v>228</v>
       </c>
       <c r="G20" s="3">
         <v>-736.08299356405519</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F21" s="8">
         <v>240</v>
       </c>
       <c r="G21" s="3">
         <v>-716.4310584781648</v>
       </c>
-      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248831-02A2-4F60-80F3-94354BD3BD10}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <f>PMT(B2/12,B3,B1)</f>
+        <v>-1933.2801529427916</v>
+      </c>
+      <c r="G4" s="1">
+        <f>B4</f>
+        <v>-1933.2801529427916</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>36</v>
+      </c>
+      <c r="K4" s="12">
+        <v>48</v>
+      </c>
+      <c r="L4" s="12">
+        <v>240</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <f>B4*B3</f>
+        <v>-115996.80917656749</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="H5">
+        <f t="dataTable" ref="H5:L8" dt2D="1" dtr="1" r1="B3" r2="B2"/>
+        <v>-8606.6429707080642</v>
+      </c>
+      <c r="I5">
+        <v>-4432.0610252756896</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-3042.1937451555109</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-2348.5029047935618</v>
+      </c>
+      <c r="L5" s="12">
+        <v>-716.4310584781648</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G6" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>-8791.5887230009594</v>
+      </c>
+      <c r="I6">
+        <v>-4614.4926337516508</v>
+      </c>
+      <c r="J6">
+        <v>-3226.7187193837485</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-2536.2583434747189</v>
+      </c>
+      <c r="L6" s="12">
+        <v>-965.02164507400789</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B4</f>
+        <v>-1933.2801529427916</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="H7">
+        <v>-9073.085785920799</v>
+      </c>
+      <c r="I7">
+        <v>-4896.3110517610048</v>
+      </c>
+      <c r="J7">
+        <v>-3515.7033036350094</v>
+      </c>
+      <c r="K7" s="12">
+        <v>-2834.0280804791869</v>
+      </c>
+      <c r="L7" s="12">
+        <v>-1391.2559400271148</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <f t="dataTable" ref="D8:D11" dt2D="0" dtr="0" r1="B2" ca="1"/>
+        <v>-1709.3747445452825</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="H8">
+        <v>-8606.6429707080642</v>
+      </c>
+      <c r="I8">
+        <v>-4432.0610252756896</v>
+      </c>
+      <c r="J8">
+        <v>-3042.1937451555109</v>
+      </c>
+      <c r="K8">
+        <v>-2348.5029047935618</v>
+      </c>
+      <c r="L8">
+        <v>-716.4310584781648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>-2124.7044711268277</v>
+      </c>
+      <c r="H9">
+        <f>H8*H4</f>
+        <v>-103279.71564849677</v>
+      </c>
+      <c r="I9">
+        <f>I8*I4</f>
+        <v>-106369.46460661656</v>
+      </c>
+      <c r="J9">
+        <f>J8*J4</f>
+        <v>-109518.97482559839</v>
+      </c>
+      <c r="K9">
+        <f>K8*K4</f>
+        <v>-112728.13943009096</v>
+      </c>
+      <c r="L9">
+        <f>L8*L4</f>
+        <v>-171943.45403475955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C10" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="D10">
+        <v>-2431.8057116359132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C11" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="D11">
+        <v>-1933.2801529427916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A75EDC-8F3D-4D2B-8739-50652E0E4947}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>